--- a/data/trans_camb/P25A_11_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,16</t>
+          <t>-3,99; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,02</t>
+          <t>-3,76; 3,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,28</t>
+          <t>-4,42; 2,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,02</t>
+          <t>-4,17; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,31</t>
+          <t>-2,02; 8,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,35</t>
+          <t>-3,05; 7,29</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 2,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 4,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 3,8</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>-13,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>35,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 237,86</t>
+          <t>-83,68; 327,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,79; 364,15</t>
+          <t>-80,6; 366,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 154,3</t>
+          <t>-89,37; 261,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 173,62</t>
+          <t>-49,87; 141,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 127,11</t>
+          <t>-24,0; 213,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 123,59</t>
+          <t>-40,65; 176,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,11; 84,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,69; 138,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-44,95; 118,26</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,45</t>
+          <t>-4,62; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,57</t>
+          <t>-3,18; 5,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,2</t>
+          <t>-2,25; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,81</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,16</t>
+          <t>-3,56; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,48</t>
+          <t>0,76; 11,95</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 3,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 7,8</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>-37,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>175,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-9,03%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>126,12%</t>
         </is>
       </c>
     </row>
@@ -876,27 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,11; 452,98</t>
+          <t>-75,64; 843,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,38; 91,51</t>
+          <t>-68,83; 899,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 212,15</t>
+          <t>-73,52; 372,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 56,29</t>
+          <t>-74,52; 269,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 160,25</t>
+          <t>1,69; 829,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-71,04; 153,62</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,44; 192,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 403,5</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>6,01</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 10,94</t>
+          <t>-12,43; 12,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,26</t>
+          <t>-13,96; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 12,12</t>
+          <t>-15,4; 5,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 6,91</t>
+          <t>0,0; 15,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,89</t>
+          <t>0,0; 14,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,08</t>
+          <t>0,0; 19,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 8,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 5,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 8,39</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>-34,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,2%</t>
+          <t>-44,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>320,42%</t>
+          <t>-53,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>101,46%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>111,82%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>48,97%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 938,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 591,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>-3,61; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,98</t>
+          <t>-2,79; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,6</t>
+          <t>-2,97; 2,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,59</t>
+          <t>-2,12; 4,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,82</t>
+          <t>-1,26; 4,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,43</t>
+          <t>0,44; 7,94</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 2,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 3,02</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 4,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>-26,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>-6,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>92,12%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 123,4</t>
+          <t>-76,99; 89,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 140,78</t>
+          <t>-63,32; 130,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 110,59</t>
+          <t>-64,04; 140,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 132,14</t>
+          <t>-37,98; 128,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 66,92</t>
+          <t>-23,35; 163,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 91,95</t>
+          <t>5,0; 268,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 75,65</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 102,61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 140,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
